--- a/Datos/Anuario2024/080202_ConsumoGasNatural.xlsx
+++ b/Datos/Anuario2024/080202_ConsumoGasNatural.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="34" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="87" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -74,6 +80,7 @@
     <definedName name="_R9_8">#REF!</definedName>
     <definedName name="a1_">#REF!</definedName>
     <definedName name="a12_">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$22</definedName>
     <definedName name="bla">#REF!</definedName>
     <definedName name="nuev">#REF!</definedName>
     <definedName name="Nuevo">#REF!</definedName>
@@ -108,97 +115,166 @@
     <definedName name="wqrqrqwrqwrqr">#REF!</definedName>
     <definedName name="xcvbcxvx">#REF!</definedName>
     <definedName name="yyyty6">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$22</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Nota: Energía facturada en miles de kWh.</t>
+  </si>
+  <si>
+    <t>Energía facturada</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Doméstico</t>
+  </si>
+  <si>
+    <t>Abonados</t>
+  </si>
+  <si>
+    <t>Fuente: Gas Natural SDG S.A.</t>
+  </si>
+  <si>
+    <t>CONSUMO DE GAS NATURAL</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>1. Abonados y facturación de gas natural por mes según tipo de instalación. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF00B0F0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF00B0F0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -233,49 +309,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="7"/>
+    <cellStyle name="Normal 15" xfId="6"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 2_2.4" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 2_2.4" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 15" xfId="6"/>
-    <cellStyle name="Normal 11" xfId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -344,8 +421,80 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF2C7C7C"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4872990</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="167640" y="323850"/>
+          <a:ext cx="5114925" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,554 +783,488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>CONSUMO DE GAS NATURAL</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja30">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja30"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17.42578125" customWidth="1" min="1" max="1"/>
-    <col width="12.5703125" customWidth="1" min="2" max="5"/>
-    <col width="8.7109375" customWidth="1" min="6" max="6"/>
-    <col width="10.28515625" customWidth="1" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="11.42578125" customWidth="1" style="1" min="11" max="11"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>1. Abonados y facturación de gas natural por mes según tipo de instalación. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Doméstico</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Comercial</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Industrial</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="n"/>
-      <c r="G3" s="11" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>Abonados</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="n">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11">
         <v>225570</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="11">
         <v>224609</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="11">
         <v>882</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="11">
         <v>79</v>
       </c>
-      <c r="F4" s="11" t="n"/>
-      <c r="G4" s="11" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>Energía facturada</t>
-        </is>
-      </c>
-      <c r="B5" s="16" t="n">
-        <v>747380.9669999999</v>
-      </c>
-      <c r="C5" s="16" t="n">
-        <v>488214.164</v>
-      </c>
-      <c r="D5" s="16" t="n">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16">
+        <v>747380.96699999995</v>
+      </c>
+      <c r="C5" s="16">
+        <v>488214.16399999999</v>
+      </c>
+      <c r="D5" s="16">
         <v>120470.686</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="16">
         <v>138696.117</v>
       </c>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="12" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="n">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
         <v>119624.966</v>
       </c>
-      <c r="C6" s="11" t="n">
-        <v>84507.71400000001</v>
-      </c>
-      <c r="D6" s="11" t="n">
+      <c r="C6" s="11">
+        <v>84507.714000000007</v>
+      </c>
+      <c r="D6" s="11">
         <v>16011.9</v>
       </c>
-      <c r="E6" s="11" t="n">
-        <v>19105.352</v>
-      </c>
-      <c r="F6" s="11" t="n"/>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="17" t="n"/>
-      <c r="J6" s="18" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B7" s="16" t="n">
-        <v>127642.397</v>
-      </c>
-      <c r="C7" s="16" t="n">
-        <v>93142.535</v>
-      </c>
-      <c r="D7" s="16" t="n">
+      <c r="E6" s="11">
+        <v>19105.351999999999</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16">
+        <v>127642.39700000001</v>
+      </c>
+      <c r="C7" s="16">
+        <v>93142.535000000003</v>
+      </c>
+      <c r="D7" s="16">
         <v>14902.721</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="16">
         <v>19597.141</v>
       </c>
-      <c r="F7" s="11" t="n"/>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="17" t="n"/>
-      <c r="J7" s="18" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="n">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
         <v>76760.03300000001</v>
       </c>
-      <c r="C8" s="11" t="n">
-        <v>49332.317</v>
-      </c>
-      <c r="D8" s="11" t="n">
+      <c r="C8" s="11">
+        <v>49332.317000000003</v>
+      </c>
+      <c r="D8" s="11">
         <v>12643.705</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="11">
         <v>14784.011</v>
       </c>
-      <c r="F8" s="11" t="n"/>
-      <c r="G8" s="11" t="n"/>
-      <c r="H8" s="17" t="n"/>
-      <c r="J8" s="18" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B9" s="16" t="n">
-        <v>48256.705</v>
-      </c>
-      <c r="C9" s="16" t="n">
-        <v>28888.015</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>8977.275</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>10391.415</v>
-      </c>
-      <c r="F9" s="11" t="n"/>
-      <c r="G9" s="11" t="n"/>
-      <c r="H9" s="17" t="n"/>
-      <c r="J9" s="18" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="12" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="n">
-        <v>48307.31</v>
-      </c>
-      <c r="C10" s="11" t="n">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16">
+        <v>48256.705000000002</v>
+      </c>
+      <c r="C9" s="16">
+        <v>28888.014999999999</v>
+      </c>
+      <c r="D9" s="16">
+        <v>8977.2749999999996</v>
+      </c>
+      <c r="E9" s="16">
+        <v>10391.415000000001</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>48307.310000000005</v>
+      </c>
+      <c r="C10" s="11">
         <v>30162.785</v>
       </c>
-      <c r="D10" s="11" t="n">
-        <v>8093.212</v>
-      </c>
-      <c r="E10" s="11" t="n">
+      <c r="D10" s="11">
+        <v>8093.2120000000004</v>
+      </c>
+      <c r="E10" s="11">
         <v>10051.313</v>
       </c>
-      <c r="F10" s="11" t="n"/>
-      <c r="G10" s="11" t="n"/>
-      <c r="H10" s="17" t="n"/>
-      <c r="J10" s="18" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B11" s="16" t="n">
-        <v>38656.369</v>
-      </c>
-      <c r="C11" s="16" t="n">
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="17"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="16">
+        <v>38656.368999999999</v>
+      </c>
+      <c r="C11" s="16">
         <v>22940.895</v>
       </c>
-      <c r="D11" s="16" t="n">
-        <v>7518.039</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>8197.434999999999</v>
-      </c>
-      <c r="F11" s="11" t="n"/>
-      <c r="G11" s="11" t="n"/>
-      <c r="H11" s="17" t="n"/>
-      <c r="J11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="12" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="n">
-        <v>31243.728</v>
-      </c>
-      <c r="C12" s="11" t="n">
+      <c r="D11" s="16">
+        <v>7518.0389999999998</v>
+      </c>
+      <c r="E11" s="16">
+        <v>8197.4349999999995</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11">
+        <v>31243.727999999999</v>
+      </c>
+      <c r="C12" s="11">
         <v>17594.554</v>
       </c>
-      <c r="D12" s="11" t="n">
-        <v>7103.275</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <v>6545.899</v>
-      </c>
-      <c r="F12" s="11" t="n"/>
-      <c r="G12" s="11" t="n"/>
-      <c r="H12" s="17" t="n"/>
-      <c r="J12" s="18" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B13" s="16" t="n">
+      <c r="D12" s="11">
+        <v>7103.2749999999996</v>
+      </c>
+      <c r="E12" s="11">
+        <v>6545.8990000000003</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="17"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16">
         <v>25796.02</v>
       </c>
-      <c r="C13" s="16" t="n">
-        <v>13963.666</v>
-      </c>
-      <c r="D13" s="16" t="n">
-        <v>5673.283</v>
-      </c>
-      <c r="E13" s="16" t="n">
-        <v>6159.071</v>
-      </c>
-      <c r="F13" s="11" t="n"/>
-      <c r="G13" s="11" t="n"/>
-      <c r="H13" s="17" t="n"/>
-      <c r="J13" s="18" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="12" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B14" s="11" t="n">
+      <c r="C13" s="16">
+        <v>13963.665999999999</v>
+      </c>
+      <c r="D13" s="16">
+        <v>5673.2830000000004</v>
+      </c>
+      <c r="E13" s="16">
+        <v>6159.0709999999999</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="17"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11">
         <v>34591.038</v>
       </c>
-      <c r="C14" s="11" t="n">
-        <v>19713.244</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>7683.004</v>
-      </c>
-      <c r="E14" s="11" t="n">
+      <c r="C14" s="11">
+        <v>19713.243999999999</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7683.0039999999999</v>
+      </c>
+      <c r="E14" s="11">
         <v>7194.79</v>
       </c>
-      <c r="F14" s="11" t="n"/>
-      <c r="G14" s="11" t="n"/>
-      <c r="H14" s="17" t="n"/>
-      <c r="J14" s="18" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B15" s="16" t="n">
-        <v>37994.021</v>
-      </c>
-      <c r="C15" s="16" t="n">
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="17"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16">
+        <v>37994.021000000001</v>
+      </c>
+      <c r="C15" s="16">
         <v>20074.431</v>
       </c>
-      <c r="D15" s="16" t="n">
-        <v>9462.036</v>
-      </c>
-      <c r="E15" s="16" t="n">
-        <v>8457.554</v>
-      </c>
-      <c r="F15" s="11" t="n"/>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="17" t="n"/>
-      <c r="J15" s="18" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="12" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B16" s="11" t="n">
-        <v>55707.13499999999</v>
-      </c>
-      <c r="C16" s="11" t="n">
-        <v>36028.363</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>7902.684</v>
-      </c>
-      <c r="E16" s="11" t="n">
+      <c r="D15" s="16">
+        <v>9462.0360000000001</v>
+      </c>
+      <c r="E15" s="16">
+        <v>8457.5540000000001</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="17"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11">
+        <v>55707.134999999995</v>
+      </c>
+      <c r="C16" s="11">
+        <v>36028.362999999998</v>
+      </c>
+      <c r="D16" s="11">
+        <v>7902.6840000000002</v>
+      </c>
+      <c r="E16" s="11">
         <v>11776.088</v>
       </c>
-      <c r="F16" s="11" t="n"/>
-      <c r="G16" s="11" t="n"/>
-      <c r="H16" s="17" t="n"/>
-      <c r="J16" s="18" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B17" s="16" t="n">
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="17"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="16">
         <v>102801.246</v>
       </c>
-      <c r="C17" s="16" t="n">
-        <v>71865.645</v>
-      </c>
-      <c r="D17" s="16" t="n">
+      <c r="C17" s="16">
+        <v>71865.645000000004</v>
+      </c>
+      <c r="D17" s="16">
         <v>14499.552</v>
       </c>
-      <c r="E17" s="16" t="n">
-        <v>16436.049</v>
-      </c>
-      <c r="F17" s="11" t="n"/>
-      <c r="G17" s="11" t="n"/>
-      <c r="H17" s="17" t="n"/>
-      <c r="J17" s="18" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Energía facturada en miles de kWh.</t>
-        </is>
-      </c>
-      <c r="D18" s="11" t="n"/>
-      <c r="E18" s="11" t="n"/>
-      <c r="F18" s="11" t="n"/>
-      <c r="G18" s="11" t="n"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Gas Natural SDG S.A.</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="11" t="n"/>
-      <c r="D19" s="11" t="n"/>
-      <c r="E19" s="11" t="n"/>
-      <c r="F19" s="11" t="n"/>
-      <c r="G19" s="11" t="n"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="11" t="n"/>
-      <c r="D20" s="11" t="n"/>
-      <c r="E20" s="11" t="n"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="11" t="n"/>
-      <c r="D21" s="11" t="n"/>
-      <c r="E21" s="11" t="n"/>
+      <c r="E17" s="16">
+        <v>16436.048999999999</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="17"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja31">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D7:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="3" min="4" max="16384"/>
+    <col min="1" max="1" width="6.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="7">
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="14" t="n"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="14" t="n"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="14" t="n"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="14" t="n"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="14" t="n"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="14" t="n"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="14" t="n"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="14" t="n"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="14" t="n"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="14" t="n"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="14" t="n"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="14" t="n"/>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>